--- a/data/trans_orig/CRON_MORT_INDEX-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CRON_MORT_INDEX-Clase-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,26</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,23</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>0,21</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>0,09</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,24</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,16</t>
+          <t>0,18; 0,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>0,19; 0,29</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,12</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>0,22; 0,31</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,09; 0,14</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 0,2</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,12</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>0,19; 0,27</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 0,24</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,12</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 0,28</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 0,17</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,13</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,13</t>
+          <t>0,14; 0,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
+          <t>0,17; 0,24</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,11</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>0,22; 0,28</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 0,21</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 0,18</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,24</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>0,29</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>0,27</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,18</t>
+          <t>0,18; 0,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>0,18; 0,29</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,16</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>0,19; 0,32</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 0,27</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 0,28</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,14</t>
+          <t>0,11; 0,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
+          <t>0,11; 0,19</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>0,24; 0,36</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 0,17</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 0,16</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,15</t>
+          <t>0,14; 0,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
+          <t>0,16; 0,23</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 0,13</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>0,23; 0,32</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 0,2</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 0,2</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,5</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,27</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>0,27</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>0,54</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,28</t>
+          <t>0,25; 0,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 0,63</t>
+          <t>0,04; 0,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,34</t>
+          <t>0,11; 0,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>0,4; 0,63</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 0,27</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 0,36</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 0,26</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 0,83</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>0,24; 0,3</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 0,27</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 0,82</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 0,34</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 0,25</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 0,25</t>
-        </is>
-      </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,65</t>
+          <t>0,06; 0,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,32</t>
+          <t>0,12; 0,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,28</t>
+          <t>0,44; 0,64</t>
         </is>
       </c>
     </row>
@@ -1081,57 +1081,57 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,3</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>0,18</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>0,32</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,31</t>
+          <t>0,22; 0,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,39</t>
+          <t>0,22; 0,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,3</t>
+          <t>0,19; 0,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,29</t>
+          <t>0,23; 0,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,22</t>
+          <t>0,14; 0,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,44</t>
+          <t>0,05; 0,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,18</t>
+          <t>0,13; 0,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,18</t>
+          <t>0,27; 0,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,25</t>
+          <t>0,19; 0,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
+          <t>0,11; 0,23</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 0,23</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>0,27; 0,38</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 0,24</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 0,23</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,27</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>0,37</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>0,34</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,26</t>
+          <t>0,16; 0,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,45</t>
+          <t>0,16; 0,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,34</t>
+          <t>0,11; 0,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,27</t>
+          <t>0,17; 0,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,31</t>
+          <t>0,22; 0,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,49</t>
+          <t>0,28; 0,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,35</t>
+          <t>0,15; 0,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,29</t>
+          <t>0,28; 0,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,26</t>
+          <t>0,21; 0,27</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,43</t>
+          <t>0,25; 0,54</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,33</t>
+          <t>0,14; 0,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,27</t>
+          <t>0,26; 0,42</t>
         </is>
       </c>
     </row>
@@ -1356,24 +1356,24 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,12</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>0,07</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>0,22</t>
@@ -1381,37 +1381,37 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>0,4</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>0,28</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,37</t>
+          <t>0,05; 0,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,2</t>
+          <t>0,01; 0,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,16</t>
+          <t>0,0; 0,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,1</t>
+          <t>0,03; 0,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,57</t>
+          <t>0,18; 0,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,56</t>
+          <t>0,22; 0,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,31</t>
+          <t>0,03; 0,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,24</t>
+          <t>0,28; 0,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,39</t>
+          <t>0,16; 0,22</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,38</t>
+          <t>0,17; 0,26</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,26</t>
+          <t>0,06; 0,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,18</t>
+          <t>0,2; 0,39</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,29</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>0,33</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>0,31</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,21</t>
+          <t>0,22; 0,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
+          <t>0,14; 0,24</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 0,17</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>0,26; 0,33</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 0,26</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 0,24</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,17</t>
+          <t>0,17; 0,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,36</t>
+          <t>0,17; 0,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,23</t>
+          <t>0,12; 0,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,19</t>
+          <t>0,3; 0,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,18</t>
+          <t>0,2; 0,22</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
+          <t>0,17; 0,25</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 0,16</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>0,29; 0,33</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 0,24</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 0,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CRON_MORT_INDEX-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CRON_MORT_INDEX-Clase-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de cronicidad física (enfermedades más mortales 1-4)</t>
+          <t>Índice de cronicidad física (enfermedades más mortales 1-4) (tasa de respuesta: 99,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CRON_MORT_INDEX-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CRON_MORT_INDEX-Clase-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,25</t>
+          <t>0,16; 0,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,29</t>
+          <t>0,2; 0,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,14</t>
+          <t>0,08; 0,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,2</t>
+          <t>0,13; 0,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,18</t>
+          <t>0,13; 0,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,28</t>
+          <t>0,21; 0,28</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,14 +864,14 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,17; 0,26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>0,18; 0,28</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 0,29</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
           <t>0,07; 0,16</t>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,32</t>
+          <t>0,18; 0,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,36</t>
+          <t>0,24; 0,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,21</t>
+          <t>0,14; 0,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,23</t>
+          <t>0,16; 0,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,34</t>
+          <t>0,24; 0,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,34</t>
+          <t>0,04; 0,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 0,63</t>
+          <t>0,4; 0,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,27</t>
+          <t>0,18; 0,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,36</t>
+          <t>0,19; 0,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 0,83</t>
+          <t>0,44; 0,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,3</t>
+          <t>0,23; 0,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,64</t>
+          <t>0,45; 0,65</t>
         </is>
       </c>
     </row>
@@ -1076,14 +1076,14 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>0,26</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
           <t>0,24</t>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,14 +1144,14 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,21; 0,27</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>0,22; 0,3</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 0,3</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
           <t>0,19; 0,29</t>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,38</t>
+          <t>0,24; 0,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1184,12 +1184,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,24</t>
+          <t>0,18; 0,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,23</t>
+          <t>0,1; 0,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1216,39 +1216,39 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>0,2</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
           <t>0,37</t>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,26</t>
+          <t>0,17; 0,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,29</t>
+          <t>0,17; 0,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,47</t>
+          <t>0,17; 0,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,3</t>
+          <t>0,2; 0,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,27</t>
+          <t>0,2; 0,26</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,54</t>
+          <t>0,26; 0,56</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,42</t>
+          <t>0,26; 0,43</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,13</t>
+          <t>0,04; 0,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,28</t>
+          <t>0,01; 0,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,18</t>
+          <t>0,03; 0,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,26</t>
+          <t>0,19; 0,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,29</t>
+          <t>0,22; 0,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,56</t>
+          <t>0,28; 0,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,22</t>
+          <t>0,14; 0,2</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,26</t>
+          <t>0,17; 0,25</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,39</t>
+          <t>0,2; 0,41</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,25</t>
+          <t>0,2; 0,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,24</t>
+          <t>0,13; 0,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,19</t>
+          <t>0,16; 0,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,3</t>
+          <t>0,17; 0,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,37</t>
+          <t>0,3; 0,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,22</t>
+          <t>0,18; 0,2</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,25</t>
+          <t>0,18; 0,25</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,33</t>
+          <t>0,29; 0,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CRON_MORT_INDEX-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CRON_MORT_INDEX-Clase-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,19</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>0,24</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>0,09</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,14</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,2; 0,3</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 0,31</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,12</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>0,16; 0,22</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 0,29</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,12</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 0,31</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>0,13; 0,21</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 0,27</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,12</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>0,08; 0,12</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 0,2</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,12</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 0,27</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>0,18; 0,24</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 0,28</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,11</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>0,13; 0,16</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 0,24</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,11</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 0,28</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,2</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>0,14</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>0,1</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>0,16</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,17; 0,27</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 0,31</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,16</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>0,17; 0,26</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 0,28</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,16</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 0,31</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>0,11; 0,19</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 0,35</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>0,11; 0,17</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 0,19</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,14</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,24; 0,35</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>0,16; 0,22</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 0,32</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 0,13</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>0,14; 0,19</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 0,22</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,13</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>0,23; 0,32</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,27</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>0,15</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>0,26</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,23; 0,38</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 0,61</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 0,2</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>0,24; 0,32</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 0,33</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 0,2</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,4; 0,61</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>0,19; 0,36</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 0,87</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 0,26</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>0,18; 0,31</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 0,37</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 0,26</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,44; 0,87</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>0,23; 0,35</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 0,65</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 0,19</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>0,23; 0,3</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,32</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>0,12; 0,19</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 0,65</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,24</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>0,24</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>0,16</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>0,16</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>0,2</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>0,2</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0,32</t>
         </is>
       </c>
     </row>
@@ -1144,24 +1144,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,21; 0,3</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 0,38</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 0,29</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>0,21; 0,27</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 0,3</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 0,29</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,24; 0,38</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
           <t>0,14; 0,2</t>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,18</t>
+          <t>0,27; 0,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,45</t>
+          <t>0,14; 0,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>0,19; 0,24</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 0,38</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 0,23</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>0,18; 0,22</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 0,23</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 0,23</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>0,27; 0,38</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,22</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>0,23</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>0,23</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,16; 0,28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 0,45</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 0,22</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>0,17; 0,28</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 0,3</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 0,22</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 0,45</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>0,25; 0,34</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 0,48</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 0,26</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>0,2; 0,28</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 0,64</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 0,26</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 0,48</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>0,23; 0,3</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 0,43</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,14; 0,22</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>0,2; 0,26</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 0,56</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 0,22</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 0,43</t>
         </is>
       </c>
     </row>
@@ -1371,47 +1371,47 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>0,22</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>0,17</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,01; 0,25</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,2</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,44</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>0,04; 0,1</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 0,3</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,44</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,2</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>0,21; 0,29</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 0,54</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,47</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>0,19; 0,27</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 0,3</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,47</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 0,54</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>0,17; 0,24</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 0,41</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,34</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>0,14; 0,2</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 0,25</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,34</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 0,41</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,21</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>0,21</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>0,17</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>0,22</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
         <is>
           <t>0,14</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
+      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>0,19</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,21; 0,25</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 0,33</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 0,17</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>0,2; 0,23</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 0,24</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 0,17</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 0,33</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>0,2; 0,23</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 0,36</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 0,15</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>0,16; 0,19</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 0,29</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>0,12; 0,15</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 0,36</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>0,21; 0,24</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 0,34</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 0,16</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>0,18; 0,2</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 0,25</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 0,16</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 0,34</t>
         </is>
       </c>
     </row>
